--- a/wenan/wenan.xlsx
+++ b/wenan/wenan.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
-  <si>
-    <t>英语</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>主文案</t>
   </si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>干扰文案</t>
-  </si>
-  <si>
-    <t>She has brothers and a sister, but they are all far away</t>
   </si>
   <si>
     <t>安全很重要
@@ -47,9 +41,6 @@
 将此折痕两头对齐压平后打开。
 再次沿一条折痕对折，将斜边水平向上折，折叠宽度比例建议接近1：8该宽度为最后成品的花蕊大小，如果20cm纸可取1cm
 再次打开，得到两条平行折痕。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married and living in other countries. She remained here </t>
   </si>
   <si>
     <t>小台子别考虑
@@ -73,9 +64,6 @@
 反面折痕如图</t>
   </si>
   <si>
-    <t>my Paul did not even know her. Her father was a</t>
-  </si>
-  <si>
     <t>163.com</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
 （有可能模仿光合作用制成高效率的太阳能电池）
 (三)光子牵引效应：
 当一束光子能量不足以引起电子-空穴产生的激光照射在样本上，可在光束方向上于样本两端建立电势差VL，其大小与光功率成正比，称为光子牵引效应。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strange sort of man, half gentleman, half peasant, </t>
   </si>
   <si>
     <t>tmall.com</t>
@@ -108,9 +93,6 @@
 两边都是。</t>
   </si>
   <si>
-    <t>a hunter and a heretic. He was a friend of the old priest,</t>
-  </si>
-  <si>
     <t>背面，对段折区域纸层进行内翻折
 将纸角折下来，分离羽毛，注意左端纸角的山谷折
 依次分离羽毛
@@ -125,82 +107,16 @@
 完工~
 是不是很美呢？</t>
   </si>
-  <si>
-    <t xml:space="preserve">She buried her face in her hands, </t>
-  </si>
-  <si>
-    <t>and immediately there rose befo</t>
-  </si>
-  <si>
-    <t>re her the vision of her Paul a</t>
-  </si>
-  <si>
-    <t>nd the woman together in a groun</t>
-  </si>
-  <si>
-    <t>d-floor room in the old house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It was a very large room look</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ing out into the orchard, with a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> domed ceiling, and the floor was </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of pounded cement with which smal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l sea-shells and pebbles had bee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> n mixed; on one side was an immen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> se fireplace, to right and left o</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> f which stood an arm-chair and in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> front was an antique sofa. The wh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ite-washed walls were adorned with</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arms, stags' heads and antlers, a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nd paintings whose blackened canva</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ses hung in tatters, little of the </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> subjects being distinguishable in t</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> he shadows save here and there a du</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sky hand, some vestige of a face, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of a woman's hair, or bunch of fruit.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,36 +128,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -286,6 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -294,62 +264,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,17 +474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +488,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,6 +527,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,22 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,142 +591,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1159,20 +1072,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="58.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,176 +1094,48 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" customHeight="1" spans="3:3">
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
